--- a/analysis/results/Q3/beta_diversity/beta_diversity_results_colon.xlsx
+++ b/analysis/results/Q3/beta_diversity/beta_diversity_results_colon.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">pairs</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">no_ibd vs ibd , Country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">***</t>
   </si>
   <si>
     <t xml:space="preserve">no_ibd vs ibd : Country</t>
@@ -413,13 +416,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>170.677941467511</v>
+        <v>172.579534759789</v>
       </c>
       <c r="D2" t="n">
-        <v>1.09658225589041</v>
+        <v>1.11764166234755</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00324816876769928</v>
+        <v>0.0018419319687501</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -439,45 +442,45 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>396.368721732069</v>
+        <v>1345.82864924717</v>
       </c>
       <c r="D3" t="n">
-        <v>2.54661442072811</v>
+        <v>8.71571574736931</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00754328585963212</v>
+        <v>0.0143639558245333</v>
       </c>
       <c r="F3" t="n">
-        <v>0.169</v>
+        <v>0.001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.169</v>
+        <v>0.001</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>133.144214609504</v>
+        <v>171.139136968847</v>
       </c>
       <c r="D4" t="n">
-        <v>0.855062020802858</v>
+        <v>1.10851496268439</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00253386510158235</v>
+        <v>0.00182655868163036</v>
       </c>
       <c r="F4" t="n">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
